--- a/Results_xl.xlsx
+++ b/Results_xl.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daviddokupil/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B231D6-DE27-0F47-BA8C-8135D15A4C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386CC36C-A811-AD4E-873D-BB3AF6507A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{EA5F4ABD-6C6B-CC4A-AEC0-3517C2CE6C46}"/>
+    <workbookView xWindow="13380" yWindow="0" windowWidth="15420" windowHeight="18000" xr2:uid="{EA5F4ABD-6C6B-CC4A-AEC0-3517C2CE6C46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -748,10 +748,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -808,104 +808,71 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$20</c:f>
+              <c:f>Sheet1!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>128</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>256</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>384</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>512</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>640</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>768</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>896</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
@@ -943,10 +910,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1003,104 +970,71 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$20</c:f>
+              <c:f>Sheet1!$E$2:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>144</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>216</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>288</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>360</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>432</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>576</c:v>
                 </c:pt>
               </c:numCache>
@@ -1138,10 +1072,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1198,105 +1132,72 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$20</c:f>
+              <c:f>Sheet1!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>288</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>360</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>432</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>576</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,6 +1232,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$2:$G$20</c:f>
@@ -5689,6 +5656,1526 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Layer Variation Over Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$81:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$81:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8D2-034D-91D8-50D8CDE7B57A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$81:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$81:$E$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E8D2-034D-91D8-50D8CDE7B57A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$81:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$81:$F$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E8D2-034D-91D8-50D8CDE7B57A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$81:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$81:$G$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E8D2-034D-91D8-50D8CDE7B57A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="358584047"/>
+        <c:axId val="336420703"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="358584047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Test Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336420703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="336420703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358584047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RMSE vs. Time (latest)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$81:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$81:$H$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.7360634497699499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1767253612049702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6446393095018199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7669161485887201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.62129313964209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6188295207577599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.87854941263166</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8270620251745102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8382980468459</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6122744978636501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.50368423269747</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3041379460255103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5924602975472602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8597102980320099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1793150702031898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7554609144455702</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0604228524401602</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.35778978559817</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4002649864924499</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7677677400412</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD56-7747-9277-071C0D33311F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="943539087"/>
+        <c:axId val="376163807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="943539087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Test Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376163807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="376163807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943539087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5969,6 +7456,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -9536,6 +11103,1025 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9775,16 +12361,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9804,6 +12390,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67EAF64-AF28-E0C7-AD43-F0101BAA92BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11720875-11DB-3E1E-4313-51FDE8B9C179}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10129,11 +12787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F97536F-4BEE-FC4F-97DB-236452775B8C}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N118" sqref="N118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11802,7 +14460,7 @@
         <v>8.9289555363434499</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -11828,7 +14486,7 @@
         <v>8.8559319861308392</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -11854,7 +14512,7 @@
         <v>9.0695386813960592</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11879,8 +14537,12 @@
       <c r="H67">
         <v>4.0229355119600303</v>
       </c>
+      <c r="I67">
+        <f>H67-H87</f>
+        <v>0.14438609932837032</v>
+      </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11905,8 +14567,12 @@
       <c r="H68">
         <v>3.7570347357829101</v>
       </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I80" si="0">H68-H88</f>
+        <v>-7.0027289391600078E-2</v>
+      </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11931,8 +14597,12 @@
       <c r="H69">
         <v>3.8092549594654601</v>
       </c>
+      <c r="I69">
+        <f t="shared" si="0"/>
+        <v>-2.9043087380439925E-2</v>
+      </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -11957,8 +14627,12 @@
       <c r="H70">
         <v>4.1669294614208097</v>
       </c>
+      <c r="I70">
+        <f t="shared" si="0"/>
+        <v>0.5546549635571596</v>
+      </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -11983,8 +14657,12 @@
       <c r="H71">
         <v>3.5824810808344201</v>
       </c>
+      <c r="I71">
+        <f t="shared" si="0"/>
+        <v>-0.92120315186304991</v>
+      </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12009,8 +14687,12 @@
       <c r="H72">
         <v>3.9316373428453999</v>
       </c>
+      <c r="I72">
+        <f t="shared" si="0"/>
+        <v>-0.37250060318011036</v>
+      </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12035,8 +14717,12 @@
       <c r="H73">
         <v>3.80145173854693</v>
       </c>
+      <c r="I73">
+        <f t="shared" si="0"/>
+        <v>0.20899144099966982</v>
+      </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12061,8 +14747,12 @@
       <c r="H74">
         <v>3.9052558921462901</v>
       </c>
+      <c r="I74">
+        <f t="shared" si="0"/>
+        <v>4.5545594114280163E-2</v>
+      </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12087,8 +14777,12 @@
       <c r="H75">
         <v>3.72955970519312</v>
       </c>
+      <c r="I75">
+        <f t="shared" si="0"/>
+        <v>-0.44975536501006985</v>
+      </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12113,8 +14807,12 @@
       <c r="H76">
         <v>3.5501834411824298</v>
       </c>
+      <c r="I76">
+        <f t="shared" si="0"/>
+        <v>-0.20527747326314039</v>
+      </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12139,8 +14837,12 @@
       <c r="H77">
         <v>4.2008478400926803</v>
       </c>
+      <c r="I77">
+        <f t="shared" si="0"/>
+        <v>0.14042498765252009</v>
+      </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12165,8 +14867,12 @@
       <c r="H78">
         <v>3.9055166833353598</v>
       </c>
+      <c r="I78">
+        <f t="shared" si="0"/>
+        <v>-0.45227310226281014</v>
+      </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12191,8 +14897,12 @@
       <c r="H79">
         <v>3.80392173624108</v>
       </c>
+      <c r="I79">
+        <f t="shared" si="0"/>
+        <v>0.40365674974863008</v>
+      </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12217,222 +14927,533 @@
       <c r="H80">
         <v>3.48723797603005</v>
       </c>
+      <c r="I80">
+        <f t="shared" si="0"/>
+        <v>-0.28052976401114993</v>
+      </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>0.2</v>
+      </c>
+      <c r="D81">
+        <v>16</v>
+      </c>
+      <c r="E81">
+        <v>8</v>
+      </c>
       <c r="F81">
         <v>4</v>
       </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
       <c r="H81">
         <v>3.7360634497699499</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>0.2</v>
+      </c>
+      <c r="D82">
+        <v>32</v>
+      </c>
+      <c r="E82">
+        <v>16</v>
+      </c>
       <c r="F82">
         <v>8</v>
       </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
       <c r="H82">
         <v>4.1767253612049702</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>0.2</v>
+      </c>
+      <c r="D83">
+        <v>48</v>
+      </c>
+      <c r="E83">
+        <v>24</v>
+      </c>
       <c r="F83">
         <v>12</v>
       </c>
+      <c r="G83">
+        <v>6</v>
+      </c>
       <c r="H83">
         <v>3.6446393095018199</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>0.2</v>
+      </c>
+      <c r="D84">
+        <v>64</v>
+      </c>
+      <c r="E84">
+        <v>32</v>
+      </c>
       <c r="F84">
         <v>16</v>
       </c>
+      <c r="G84">
+        <v>8</v>
+      </c>
       <c r="H84">
         <v>3.7669161485887201</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>0.2</v>
+      </c>
+      <c r="D85">
+        <v>80</v>
+      </c>
+      <c r="E85">
+        <v>40</v>
+      </c>
       <c r="F85">
         <v>20</v>
       </c>
+      <c r="G85">
+        <v>10</v>
+      </c>
       <c r="H85">
         <v>3.62129313964209</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>0.2</v>
+      </c>
+      <c r="D86">
+        <v>96</v>
+      </c>
+      <c r="E86">
+        <v>48</v>
+      </c>
       <c r="F86">
         <v>24</v>
       </c>
+      <c r="G86">
+        <v>12</v>
+      </c>
       <c r="H86">
         <v>3.6188295207577599</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>0.2</v>
+      </c>
+      <c r="D87">
+        <v>112</v>
+      </c>
+      <c r="E87">
+        <v>56</v>
+      </c>
       <c r="F87">
         <v>28</v>
       </c>
+      <c r="G87">
+        <v>14</v>
+      </c>
       <c r="H87">
         <v>3.87854941263166</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>0.2</v>
+      </c>
+      <c r="D88">
+        <v>128</v>
+      </c>
+      <c r="E88">
+        <v>64</v>
+      </c>
       <c r="F88">
         <v>32</v>
       </c>
+      <c r="G88">
+        <v>16</v>
+      </c>
       <c r="H88">
         <v>3.8270620251745102</v>
       </c>
+      <c r="I88">
+        <f>MIN(H81:H99)</f>
+        <v>3.4002649864924499</v>
+      </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>0.2</v>
+      </c>
+      <c r="D89">
+        <v>144</v>
+      </c>
+      <c r="E89">
+        <v>72</v>
+      </c>
       <c r="F89">
         <v>36</v>
       </c>
+      <c r="G89">
+        <v>18</v>
+      </c>
       <c r="H89">
         <v>3.8382980468459</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>0.2</v>
+      </c>
+      <c r="D90">
+        <v>160</v>
+      </c>
+      <c r="E90">
+        <v>80</v>
+      </c>
       <c r="F90">
         <v>40</v>
       </c>
+      <c r="G90">
+        <v>20</v>
+      </c>
       <c r="H90">
         <v>3.6122744978636501</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>0.2</v>
+      </c>
+      <c r="D91">
+        <v>176</v>
+      </c>
+      <c r="E91">
+        <v>88</v>
+      </c>
       <c r="F91">
         <v>44</v>
       </c>
+      <c r="G91">
+        <v>22</v>
+      </c>
       <c r="H91">
         <v>4.50368423269747</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>0.2</v>
+      </c>
+      <c r="D92">
+        <v>192</v>
+      </c>
+      <c r="E92">
+        <v>96</v>
+      </c>
       <c r="F92">
         <v>48</v>
       </c>
+      <c r="G92">
+        <v>24</v>
+      </c>
       <c r="H92">
         <v>4.3041379460255103</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>0.2</v>
+      </c>
+      <c r="D93">
+        <v>208</v>
+      </c>
+      <c r="E93">
+        <v>104</v>
+      </c>
       <c r="F93">
         <v>52</v>
       </c>
+      <c r="G93">
+        <v>26</v>
+      </c>
       <c r="H93">
         <v>3.5924602975472602</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>0.2</v>
+      </c>
+      <c r="D94">
+        <v>224</v>
+      </c>
+      <c r="E94">
+        <v>112</v>
+      </c>
       <c r="F94">
         <v>56</v>
       </c>
+      <c r="G94">
+        <v>28</v>
+      </c>
       <c r="H94">
         <v>3.8597102980320099</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>0.2</v>
+      </c>
+      <c r="D95">
+        <v>240</v>
+      </c>
+      <c r="E95">
+        <v>120</v>
+      </c>
       <c r="F95">
         <v>60</v>
       </c>
+      <c r="G95">
+        <v>30</v>
+      </c>
       <c r="H95">
         <v>4.1793150702031898</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>0.2</v>
+      </c>
+      <c r="D96">
+        <v>256</v>
+      </c>
+      <c r="E96">
+        <v>128</v>
+      </c>
       <c r="F96">
         <v>64</v>
       </c>
+      <c r="G96">
+        <v>32</v>
+      </c>
       <c r="H96">
         <v>3.7554609144455702</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>0.2</v>
+      </c>
+      <c r="D97">
+        <v>272</v>
+      </c>
+      <c r="E97">
+        <v>136</v>
+      </c>
       <c r="F97">
         <v>68</v>
       </c>
+      <c r="G97">
+        <v>34</v>
+      </c>
       <c r="H97">
         <v>4.0604228524401602</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>0.2</v>
+      </c>
+      <c r="D98">
+        <v>288</v>
+      </c>
+      <c r="E98">
+        <v>144</v>
+      </c>
       <c r="F98">
         <v>72</v>
       </c>
+      <c r="G98">
+        <v>36</v>
+      </c>
       <c r="H98">
         <v>4.35778978559817</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>0.2</v>
+      </c>
+      <c r="D99">
+        <v>304</v>
+      </c>
+      <c r="E99">
+        <v>152</v>
+      </c>
       <c r="F99">
         <v>76</v>
       </c>
+      <c r="G99">
+        <v>38</v>
+      </c>
       <c r="H99">
         <v>3.4002649864924499</v>
       </c>
+      <c r="K99">
+        <v>3.4002649864924499</v>
+      </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>0.2</v>
+      </c>
+      <c r="D100">
+        <v>320</v>
+      </c>
+      <c r="E100">
+        <v>160</v>
+      </c>
       <c r="F100">
         <v>80</v>
+      </c>
+      <c r="G100">
+        <v>40</v>
       </c>
       <c r="H100">
         <v>3.7677677400412</v>
@@ -12440,6 +15461,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>